--- a/Excel-XLSX/UN-URU.xlsx
+++ b/Excel-XLSX/UN-URU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>egiT2T</t>
+    <t>XKn14k</t>
   </si>
   <si>
     <t>1970</t>
@@ -2403,13 +2403,13 @@
     <t>552</t>
   </si>
   <si>
-    <t>20950</t>
+    <t>23825</t>
   </si>
   <si>
     <t>553</t>
   </si>
   <si>
-    <t>1207</t>
+    <t>1407</t>
   </si>
   <si>
     <t>554</t>
@@ -2505,7 +2505,7 @@
     <t>584</t>
   </si>
   <si>
-    <t>9216</t>
+    <t>7791</t>
   </si>
   <si>
     <t>585</t>
@@ -2514,13 +2514,13 @@
     <t>586</t>
   </si>
   <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
-    <t>35032</t>
+    <t>799</t>
+  </si>
+  <si>
+    <t>4416</t>
+  </si>
+  <si>
+    <t>35951</t>
   </si>
 </sst>
 </file>
@@ -39881,7 +39881,7 @@
         <v>34</v>
       </c>
       <c r="O544" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P544" s="2" t="s">
         <v>34</v>
@@ -39949,7 +39949,7 @@
         <v>34</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="P545" s="2" t="s">
         <v>34</v>
@@ -40017,7 +40017,7 @@
         <v>34</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P546" s="2" t="s">
         <v>34</v>
@@ -40085,7 +40085,7 @@
         <v>46</v>
       </c>
       <c r="O547" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P547" s="2" t="s">
         <v>34</v>
@@ -40150,10 +40150,10 @@
         <v>32</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P548" s="2" t="s">
         <v>34</v>
@@ -40221,7 +40221,7 @@
         <v>34</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P549" s="2" t="s">
         <v>34</v>
@@ -40422,10 +40422,10 @@
         <v>32</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O552" s="2" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="P552" s="2" t="s">
         <v>34</v>
@@ -40490,7 +40490,7 @@
         <v>32</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O553" s="2" t="s">
         <v>795</v>
@@ -40629,7 +40629,7 @@
         <v>55</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P555" s="2" t="s">
         <v>34</v>
@@ -40969,7 +40969,7 @@
         <v>43</v>
       </c>
       <c r="O560" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P560" s="2" t="s">
         <v>34</v>
@@ -41649,7 +41649,7 @@
         <v>102</v>
       </c>
       <c r="O570" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P570" s="2" t="s">
         <v>34</v>
@@ -41785,7 +41785,7 @@
         <v>43</v>
       </c>
       <c r="O572" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P572" s="2" t="s">
         <v>34</v>
@@ -41853,7 +41853,7 @@
         <v>61</v>
       </c>
       <c r="O573" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P573" s="2" t="s">
         <v>34</v>
@@ -41989,7 +41989,7 @@
         <v>64</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P575" s="2" t="s">
         <v>34</v>
@@ -42057,7 +42057,7 @@
         <v>152</v>
       </c>
       <c r="O576" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P576" s="2" t="s">
         <v>34</v>
@@ -42125,7 +42125,7 @@
         <v>34</v>
       </c>
       <c r="O577" s="2" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="P577" s="2" t="s">
         <v>34</v>
@@ -42397,7 +42397,7 @@
         <v>34</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P581" s="2" t="s">
         <v>34</v>
@@ -42601,7 +42601,7 @@
         <v>64</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P584" s="2" t="s">
         <v>34</v>
@@ -42737,7 +42737,7 @@
         <v>77</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="P586" s="2" t="s">
         <v>34</v>
